--- a/Data/MMM_BEAST_FIGURES.xlsx
+++ b/Data/MMM_BEAST_FIGURES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehinde/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauna_000\Desktop\R Projects\MMMManuscript\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4526A6D5-C3F2-4C30-9DD2-3EA69723ECDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="6000" yWindow="3503" windowWidth="18000" windowHeight="9397" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F1 Scholarly Literature" sheetId="4" r:id="rId1"/>
@@ -23,10 +24,19 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
   <si>
     <t>Urban</t>
   </si>
@@ -360,18 +370,96 @@
   </si>
   <si>
     <t>2017 line in YELLOW, 2018 line in ORANGE, 2019 Line in RED (bc it was ON FIRE! ;-)</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>#F94144</t>
+  </si>
+  <si>
+    <t>FC9F32</t>
+  </si>
+  <si>
+    <t>#B2070A</t>
+  </si>
+  <si>
+    <t>#1A2766</t>
+  </si>
+  <si>
+    <t>#BF2111</t>
+  </si>
+  <si>
+    <t>#D2491B</t>
+  </si>
+  <si>
+    <t>#334C5C</t>
+  </si>
+  <si>
+    <t>#436356</t>
+  </si>
+  <si>
+    <t>#C9943B</t>
+  </si>
+  <si>
+    <t>#F1882C</t>
+  </si>
+  <si>
+    <t>#537A50</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#E67126</t>
+  </si>
+  <si>
+    <t>#AC963F</t>
+  </si>
+  <si>
+    <t>#988944</t>
+  </si>
+  <si>
+    <t>#CD9A3A</t>
+  </si>
+  <si>
+    <t>#919343</t>
+  </si>
+  <si>
+    <t>#AA953F</t>
+  </si>
+  <si>
+    <t>#6F8F48</t>
+  </si>
+  <si>
+    <t>#C5993B</t>
+  </si>
+  <si>
+    <t>#EB9D35</t>
+  </si>
+  <si>
+    <t>#B8973D</t>
+  </si>
+  <si>
+    <t>#DE9C37</t>
+  </si>
+  <si>
+    <t>#D79B38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,9 +585,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -518,9 +603,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -544,9 +626,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -555,8 +634,17 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,12 +656,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -662,8 +753,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.197330806511079"/>
-          <c:y val="0.016684894128592"/>
+          <c:x val="0.19733080651107901"/>
+          <c:y val="1.6684894128592E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -699,10 +790,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.212811694800071"/>
-          <c:y val="0.159621006461497"/>
-          <c:w val="0.514307623868714"/>
-          <c:h val="0.625706155748095"/>
+          <c:x val="0.21281169480007101"/>
+          <c:y val="0.15962100646149699"/>
+          <c:w val="0.51430762386871398"/>
+          <c:h val="0.62570615574809496"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -718,7 +809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rural</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -773,7 +864,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -793,18 +883,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$M$1588:$N$1588</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -813,14 +904,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.187</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.223980665783114</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ED1-494E-A1A8-1017F7EB86DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -831,7 +927,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suburban</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -886,7 +982,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -906,18 +1001,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$M$1588:$N$1588</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -926,14 +1022,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.570082205070901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ED1-494E-A1A8-1017F7EB86DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -944,7 +1045,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Urban</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -999,7 +1100,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1019,18 +1119,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$M$1588:$N$1588</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1039,14 +1140,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.205937129145985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1ED1-494E-A1A8-1017F7EB86DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1163,10 +1269,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.726115556766175"/>
-          <c:y val="0.263910427832128"/>
-          <c:w val="0.214191580688269"/>
-          <c:h val="0.403431946715829"/>
+          <c:x val="0.72611555676617501"/>
+          <c:y val="0.26391042783212798"/>
+          <c:w val="0.21419158068826899"/>
+          <c:h val="0.40343194671582899"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1230,7 +1336,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1284,8 +1390,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1952255686168"/>
-          <c:y val="0.0157090396069241"/>
+          <c:x val="0.19522556861679999"/>
+          <c:y val="1.5709039606924099E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1322,8 +1428,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.124205968161411"/>
-          <c:y val="0.146071626859242"/>
-          <c:w val="0.517789139599011"/>
+          <c:y val="0.14607162685924199"/>
+          <c:w val="0.51778913959901096"/>
           <c:h val="0.689413026168892"/>
         </c:manualLayout>
       </c:layout>
@@ -1340,7 +1446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>South Atlantic</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1393,7 +1499,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1413,18 +1518,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$O$1607:$P$1607</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use of March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1433,14 +1539,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19.06989053921348</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.14092194159499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1A6-4005-8CDF-E15586045A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1451,7 +1562,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>South Central</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1504,7 +1615,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1524,18 +1634,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$O$1607:$P$1607</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use of March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1544,14 +1655,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20.31830336409541</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1A6-4005-8CDF-E15586045A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1562,7 +1678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mountain West &amp; Midwest Plains </c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1615,7 +1731,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1635,18 +1750,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$O$1607:$P$1607</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use of March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1655,14 +1771,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.62726636966799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1A6-4005-8CDF-E15586045A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1673,7 +1794,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Great Lakes</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1726,7 +1847,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1746,18 +1866,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$O$1607:$P$1607</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use of March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1766,14 +1887,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.27562294912356</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1A6-4005-8CDF-E15586045A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1784,7 +1910,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Northeast &amp; Mid-Atlantic </c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1837,7 +1963,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1857,18 +1982,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$O$1607:$P$1607</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use of March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1877,14 +2003,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.56827003580069</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F1A6-4005-8CDF-E15586045A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1895,7 +2026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pacific</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1948,7 +2079,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1968,18 +2098,19 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>[1]Sheet6!$O$1607:$P$1607</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>K-12 Public School Student Population USA</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>K-12 Student Use of March Mammal Madness</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1988,14 +2119,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16.14064674209886</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F1A6-4005-8CDF-E15586045A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -2111,10 +2247,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65907986642107"/>
-          <c:y val="0.15518834767409"/>
-          <c:w val="0.281811633073956"/>
-          <c:h val="0.685477107741393"/>
+          <c:x val="0.65907986642106997"/>
+          <c:y val="0.15518834767409001"/>
+          <c:w val="0.28181163307395601"/>
+          <c:h val="0.68547710774139303"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2185,7 +2321,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2253,8 +2389,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.259456443932651"/>
-          <c:y val="0.0358063217557928"/>
+          <c:x val="0.25945644393265099"/>
+          <c:y val="3.5806321755792798E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2295,8 +2431,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.197433193897638"/>
           <c:y val="0.187723538016246"/>
-          <c:w val="0.463262426181102"/>
-          <c:h val="0.653548620839573"/>
+          <c:w val="0.46326242618110203"/>
+          <c:h val="0.65354862083957299"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2311,7 +2447,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of Tweets</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2347,13 +2483,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2017.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2019.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,18 +2501,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39948.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40254.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45106.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6480-4D7D-B38B-D38F00CB9BF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2403,7 +2544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Twitter Timeline Deliveries</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2440,13 +2581,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2017.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2019.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,18 +2599,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.8923728E7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.18046971E8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.42582646E8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6480-4D7D-B38B-D38F00CB9BF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2533,8 +2679,8 @@
         <c:axId val="-1006486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="47000.0"/>
-          <c:min val="35000.0"/>
+          <c:max val="47000"/>
+          <c:min val="35000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2585,8 +2731,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0554913877952756"/>
-              <c:y val="0.23046365951468"/>
+              <c:x val="5.5491387795275599E-2"/>
+              <c:y val="0.23046365951468001"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2656,7 +2802,7 @@
         <c:axId val="-1006511776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="7.0E7"/>
+          <c:min val="70000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2702,7 +2848,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.816773622047244"/>
+              <c:x val="0.81677362204724402"/>
               <c:y val="0.237337470362673"/>
             </c:manualLayout>
           </c:layout>
@@ -2843,10 +2989,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.295704601377953"/>
-          <c:y val="0.733006908058426"/>
-          <c:w val="0.363368848425197"/>
-          <c:h val="0.0916752041682522"/>
+          <c:x val="0.29570460137795301"/>
+          <c:y val="0.73300690805842605"/>
+          <c:w val="0.36336884842519701"/>
+          <c:h val="9.16752041682522E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2918,7 +3064,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2938,9 +3084,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26225502839612"/>
-          <c:y val="0.172206303724928"/>
-          <c:w val="0.705122676043928"/>
+          <c:x val="0.26225502839612003"/>
+          <c:y val="0.17220630372492801"/>
+          <c:w val="0.70512267604392798"/>
           <c:h val="0.675552497198595"/>
         </c:manualLayout>
       </c:layout>
@@ -2956,7 +3102,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Blogpost Views</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2992,25 +3138,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2013.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2016.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2017.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2018.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2019.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,30 +3168,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30069.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29063.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124743.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82153.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169890.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>224560.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>272776.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B71-4F0B-908A-42630C27061E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3149,8 +3300,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0540252000544693"/>
-              <c:y val="0.20173514127353"/>
+              <c:x val="5.40252000544693E-2"/>
+              <c:y val="0.20173514127353001"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5479,7 +5630,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image9.png"/>
+        <xdr:cNvPr id="3" name="image9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5522,7 +5679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5571,7 +5734,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image5.png"/>
+        <xdr:cNvPr id="2" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5614,7 +5783,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5646,7 +5821,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5678,7 +5859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image8.png"/>
+        <xdr:cNvPr id="4" name="image8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5721,7 +5908,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image4.png"/>
+        <xdr:cNvPr id="2" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5764,7 +5957,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5796,7 +5995,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5972,146 +6177,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Master_Data"/>
-      <sheetName val="Sheet7"/>
-      <sheetName val="Sheet4"/>
       <sheetName val="Sheet6"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet9"/>
-      <sheetName val="Sheet10"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="1588">
-          <cell r="M1588" t="str">
-            <v>K-12 Public School Student Population USA</v>
-          </cell>
-          <cell r="N1588" t="str">
-            <v>K-12 Student Use March Mammal Madness</v>
-          </cell>
-        </row>
-        <row r="1589">
-          <cell r="L1589" t="str">
-            <v>Rural</v>
-          </cell>
-          <cell r="M1589">
-            <v>0.187</v>
-          </cell>
-          <cell r="N1589">
-            <v>0.22398066578311374</v>
-          </cell>
-        </row>
-        <row r="1590">
-          <cell r="L1590" t="str">
-            <v>Suburban</v>
-          </cell>
-          <cell r="M1590">
-            <v>0.51</v>
-          </cell>
-          <cell r="N1590">
-            <v>0.57008220507090079</v>
-          </cell>
-        </row>
-        <row r="1591">
-          <cell r="L1591" t="str">
-            <v>Urban</v>
-          </cell>
-          <cell r="M1591">
-            <v>0.30199999999999999</v>
-          </cell>
-          <cell r="N1591">
-            <v>0.20593712914598547</v>
-          </cell>
-        </row>
-        <row r="1607">
-          <cell r="O1607" t="str">
-            <v>K-12 Public School Student Population USA</v>
-          </cell>
-          <cell r="P1607" t="str">
-            <v>K-12 Student Use of March Mammal Madness</v>
-          </cell>
-        </row>
-        <row r="1608">
-          <cell r="N1608" t="str">
-            <v>South Atlantic</v>
-          </cell>
-          <cell r="O1608">
-            <v>19.069890539213482</v>
-          </cell>
-          <cell r="P1608">
-            <v>19.140921941594989</v>
-          </cell>
-        </row>
-        <row r="1609">
-          <cell r="N1609" t="str">
-            <v>South Central</v>
-          </cell>
-          <cell r="O1609">
-            <v>20.318303364095406</v>
-          </cell>
-          <cell r="P1609">
-            <v>15.8</v>
-          </cell>
-        </row>
-        <row r="1610">
-          <cell r="N1610" t="str">
-            <v xml:space="preserve">Mountain West &amp; Midwest Plains </v>
-          </cell>
-          <cell r="O1610">
-            <v>14.627266369667995</v>
-          </cell>
-          <cell r="P1610">
-            <v>16.100000000000001</v>
-          </cell>
-        </row>
-        <row r="1611">
-          <cell r="N1611" t="str">
-            <v>Great Lakes</v>
-          </cell>
-          <cell r="O1611">
-            <v>14.275622949123562</v>
-          </cell>
-          <cell r="P1611">
-            <v>19.7</v>
-          </cell>
-        </row>
-        <row r="1612">
-          <cell r="N1612" t="str">
-            <v xml:space="preserve">Northeast &amp; Mid-Atlantic </v>
-          </cell>
-          <cell r="O1612">
-            <v>15.568270035800692</v>
-          </cell>
-          <cell r="P1612">
-            <v>15.2</v>
-          </cell>
-        </row>
-        <row r="1613">
-          <cell r="N1613" t="str">
-            <v>Pacific</v>
-          </cell>
-          <cell r="O1613">
-            <v>16.140646742098863</v>
-          </cell>
-          <cell r="P1613">
-            <v>14</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6121,209 +6190,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Battle Outcomes"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="Twitter Activity Blog"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Relative Proportions"/>
-      <sheetName val="Sheet6"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet7"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Number of Tweets</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Twitter Timeline Deliveries</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2017</v>
-          </cell>
-          <cell r="B2">
-            <v>39948</v>
-          </cell>
-          <cell r="C2">
-            <v>78923728</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2018</v>
-          </cell>
-          <cell r="B3">
-            <v>40254</v>
-          </cell>
-          <cell r="C3">
-            <v>118046971</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2019</v>
-          </cell>
-          <cell r="B4">
-            <v>45106</v>
-          </cell>
-          <cell r="C4">
-            <v>142582646</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="U9" t="str">
-            <v>Blogpost Views</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="T10">
-            <v>2013</v>
-          </cell>
-          <cell r="U10">
-            <v>30069</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="T11">
-            <v>2014</v>
-          </cell>
-          <cell r="U11">
-            <v>29063</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="T12">
-            <v>2015</v>
-          </cell>
-          <cell r="U12">
-            <v>124743</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="T13">
-            <v>2016</v>
-          </cell>
-          <cell r="U13">
-            <v>82153</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="T14">
-            <v>2017</v>
-          </cell>
-          <cell r="U14">
-            <v>169890</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="T15">
-            <v>2018</v>
-          </cell>
-          <cell r="U15">
-            <v>224560</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="T16">
-            <v>2019</v>
-          </cell>
-          <cell r="U16">
-            <v>272776</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>Battle Narration</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Genetics/Phylogeny</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2013</v>
-          </cell>
-          <cell r="B46">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2014</v>
-          </cell>
-          <cell r="B47">
-            <v>123</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2015</v>
-          </cell>
-          <cell r="B48">
-            <v>132</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2016</v>
-          </cell>
-          <cell r="B49">
-            <v>138</v>
-          </cell>
-          <cell r="C49">
-            <v>164</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2017</v>
-          </cell>
-          <cell r="B50">
-            <v>253</v>
-          </cell>
-          <cell r="C50">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>2018</v>
-          </cell>
-          <cell r="B51">
-            <v>211</v>
-          </cell>
-          <cell r="C51">
-            <v>186</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>2019</v>
-          </cell>
-          <cell r="B52">
-            <v>223</v>
-          </cell>
-          <cell r="C52">
-            <v>173</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6591,19 +6461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
@@ -6619,7 +6489,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
@@ -6635,7 +6505,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
@@ -6651,7 +6521,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
@@ -6667,7 +6537,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
@@ -6683,12 +6553,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6702,14 +6572,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:15" ht="31.5">
+      <c r="A9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1"/>
@@ -6725,11 +6595,11 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+    <row r="10" spans="1:15">
+      <c r="A10" s="22">
         <v>2013</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>22</v>
       </c>
       <c r="C10" s="9"/>
@@ -6746,11 +6616,11 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+    <row r="11" spans="1:15">
+      <c r="A11" s="22">
         <v>2014</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>123</v>
       </c>
       <c r="C11" s="9"/>
@@ -6767,11 +6637,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+    <row r="12" spans="1:15">
+      <c r="A12" s="22">
         <v>2015</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>132</v>
       </c>
       <c r="C12" s="9"/>
@@ -6788,11 +6658,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+    <row r="13" spans="1:15">
+      <c r="A13" s="22">
         <v>2016</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>138</v>
       </c>
       <c r="C13" s="9">
@@ -6811,11 +6681,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+    <row r="14" spans="1:15">
+      <c r="A14" s="22">
         <v>2017</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>253</v>
       </c>
       <c r="C14" s="9">
@@ -6834,11 +6704,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+    <row r="15" spans="1:15">
+      <c r="A15" s="22">
         <v>2018</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>211</v>
       </c>
       <c r="C15" s="9">
@@ -6857,11 +6727,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+    <row r="16" spans="1:15">
+      <c r="A16" s="22">
         <v>2019</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>223</v>
       </c>
       <c r="C16" s="9">
@@ -6880,7 +6750,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
@@ -6896,7 +6766,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
@@ -6912,7 +6782,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
@@ -6928,7 +6798,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
@@ -6944,10 +6814,10 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -6960,10 +6830,10 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -6976,10 +6846,10 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -6992,10 +6862,10 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7008,7 +6878,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
@@ -7024,7 +6894,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
@@ -7040,7 +6910,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
@@ -7056,7 +6926,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
@@ -7072,19 +6942,19 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D30" s="37" t="s">
+    <row r="30" spans="1:15">
+      <c r="D30" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="D32" s="9" t="s">
         <v>67</v>
       </c>
@@ -7092,7 +6962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" s="9" t="s">
         <v>68</v>
       </c>
@@ -7100,7 +6970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" s="9" t="s">
         <v>69</v>
       </c>
@@ -7108,7 +6978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="D35" s="9" t="s">
         <v>70</v>
       </c>
@@ -7116,7 +6986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="D36" s="9" t="s">
         <v>71</v>
       </c>
@@ -7124,7 +6994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="D37" s="9" t="s">
         <v>72</v>
       </c>
@@ -7132,7 +7002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5">
       <c r="D38" s="9" t="s">
         <v>73</v>
       </c>
@@ -7140,7 +7010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5">
       <c r="D39" s="9" t="s">
         <v>74</v>
       </c>
@@ -7148,7 +7018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5">
       <c r="D40" s="9" t="s">
         <v>75</v>
       </c>
@@ -7156,7 +7026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5">
       <c r="D41" s="9" t="s">
         <v>76</v>
       </c>
@@ -7164,7 +7034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5">
       <c r="D42" s="9" t="s">
         <v>77</v>
       </c>
@@ -7172,7 +7042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5">
       <c r="D43" s="9" t="s">
         <v>78</v>
       </c>
@@ -7180,7 +7050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5">
       <c r="D44" s="9" t="s">
         <v>79</v>
       </c>
@@ -7188,7 +7058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5">
       <c r="D45" s="9" t="s">
         <v>80</v>
       </c>
@@ -7196,7 +7066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5">
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -7204,7 +7074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5">
       <c r="D47" s="9" t="s">
         <v>82</v>
       </c>
@@ -7212,7 +7082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5">
       <c r="D48" s="9" t="s">
         <v>83</v>
       </c>
@@ -7220,7 +7090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:6">
       <c r="D49" s="9" t="s">
         <v>84</v>
       </c>
@@ -7228,7 +7098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:6">
       <c r="D50" s="9" t="s">
         <v>85</v>
       </c>
@@ -7236,7 +7106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:6">
       <c r="D51" s="9" t="s">
         <v>86</v>
       </c>
@@ -7244,7 +7114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:6">
       <c r="D52" s="9" t="s">
         <v>87</v>
       </c>
@@ -7252,7 +7122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:6">
       <c r="D53" s="9" t="s">
         <v>88</v>
       </c>
@@ -7260,7 +7130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:6">
       <c r="D54" s="9" t="s">
         <v>89</v>
       </c>
@@ -7268,7 +7138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:6">
       <c r="D55" s="9" t="s">
         <v>90</v>
       </c>
@@ -7276,7 +7146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:6">
       <c r="D56" s="9" t="s">
         <v>91</v>
       </c>
@@ -7284,7 +7154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:6">
       <c r="E62" s="6" t="s">
         <v>32</v>
       </c>
@@ -7292,396 +7162,396 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:6">
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="4:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E64" s="38">
+    <row r="64" spans="4:6" ht="16.5">
+      <c r="E64" s="35">
         <v>1970</v>
       </c>
       <c r="F64" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E65" s="38">
+    <row r="65" spans="5:6" ht="16.5">
+      <c r="E65" s="35">
         <v>1971</v>
       </c>
       <c r="F65" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E66" s="38">
+    <row r="66" spans="5:6" ht="16.5">
+      <c r="E66" s="35">
         <v>1972</v>
       </c>
       <c r="F66" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E67" s="38">
+    <row r="67" spans="5:6" ht="16.5">
+      <c r="E67" s="35">
         <v>1973</v>
       </c>
       <c r="F67" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E68" s="38">
+    <row r="68" spans="5:6" ht="16.5">
+      <c r="E68" s="35">
         <v>1974</v>
       </c>
       <c r="F68" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E69" s="38">
+    <row r="69" spans="5:6" ht="16.5">
+      <c r="E69" s="35">
         <v>1975</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E70" s="38">
+    <row r="70" spans="5:6" ht="16.5">
+      <c r="E70" s="35">
         <v>1976</v>
       </c>
       <c r="F70" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E71" s="38">
+    <row r="71" spans="5:6" ht="16.5">
+      <c r="E71" s="35">
         <v>1977</v>
       </c>
       <c r="F71" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E72" s="38">
+    <row r="72" spans="5:6" ht="16.5">
+      <c r="E72" s="35">
         <v>1978</v>
       </c>
       <c r="F72" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E73" s="38">
+    <row r="73" spans="5:6" ht="16.5">
+      <c r="E73" s="35">
         <v>1979</v>
       </c>
       <c r="F73" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E74" s="38">
+    <row r="74" spans="5:6" ht="16.5">
+      <c r="E74" s="35">
         <v>1980</v>
       </c>
       <c r="F74" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E75" s="38">
+    <row r="75" spans="5:6" ht="16.5">
+      <c r="E75" s="35">
         <v>1981</v>
       </c>
       <c r="F75" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E76" s="38">
+    <row r="76" spans="5:6" ht="16.5">
+      <c r="E76" s="35">
         <v>1982</v>
       </c>
       <c r="F76" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E77" s="38">
+    <row r="77" spans="5:6" ht="16.5">
+      <c r="E77" s="35">
         <v>1983</v>
       </c>
       <c r="F77" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E78" s="38">
+    <row r="78" spans="5:6" ht="16.5">
+      <c r="E78" s="35">
         <v>1984</v>
       </c>
       <c r="F78" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E79" s="38">
+    <row r="79" spans="5:6" ht="16.5">
+      <c r="E79" s="35">
         <v>1985</v>
       </c>
       <c r="F79" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E80" s="38">
+    <row r="80" spans="5:6" ht="16.5">
+      <c r="E80" s="35">
         <v>1986</v>
       </c>
       <c r="F80" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E81" s="38">
+    <row r="81" spans="5:6" ht="16.5">
+      <c r="E81" s="35">
         <v>1987</v>
       </c>
       <c r="F81" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E82" s="38">
+    <row r="82" spans="5:6" ht="16.5">
+      <c r="E82" s="35">
         <v>1988</v>
       </c>
       <c r="F82" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E83" s="38">
+    <row r="83" spans="5:6" ht="16.5">
+      <c r="E83" s="35">
         <v>1989</v>
       </c>
       <c r="F83" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E84" s="38">
+    <row r="84" spans="5:6" ht="16.5">
+      <c r="E84" s="35">
         <v>1990</v>
       </c>
       <c r="F84" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E85" s="38">
+    <row r="85" spans="5:6" ht="16.5">
+      <c r="E85" s="35">
         <v>1991</v>
       </c>
       <c r="F85" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E86" s="38">
+    <row r="86" spans="5:6" ht="16.5">
+      <c r="E86" s="35">
         <v>1992</v>
       </c>
       <c r="F86" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E87" s="38">
+    <row r="87" spans="5:6" ht="16.5">
+      <c r="E87" s="35">
         <v>1993</v>
       </c>
       <c r="F87" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E88" s="38">
+    <row r="88" spans="5:6" ht="16.5">
+      <c r="E88" s="35">
         <v>1994</v>
       </c>
       <c r="F88" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E89" s="38">
+    <row r="89" spans="5:6" ht="16.5">
+      <c r="E89" s="35">
         <v>1995</v>
       </c>
       <c r="F89" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E90" s="38">
+    <row r="90" spans="5:6" ht="16.5">
+      <c r="E90" s="35">
         <v>1996</v>
       </c>
       <c r="F90" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E91" s="38">
+    <row r="91" spans="5:6" ht="16.5">
+      <c r="E91" s="35">
         <v>1997</v>
       </c>
       <c r="F91" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E92" s="38">
+    <row r="92" spans="5:6" ht="16.5">
+      <c r="E92" s="35">
         <v>1998</v>
       </c>
       <c r="F92" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E93" s="38">
+    <row r="93" spans="5:6" ht="16.5">
+      <c r="E93" s="35">
         <v>1999</v>
       </c>
       <c r="F93" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E94" s="38">
+    <row r="94" spans="5:6" ht="16.5">
+      <c r="E94" s="35">
         <v>2000</v>
       </c>
       <c r="F94" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E95" s="38">
+    <row r="95" spans="5:6" ht="16.5">
+      <c r="E95" s="35">
         <v>2001</v>
       </c>
       <c r="F95" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E96" s="38">
+    <row r="96" spans="5:6" ht="16.5">
+      <c r="E96" s="35">
         <v>2002</v>
       </c>
       <c r="F96" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E97" s="38">
+    <row r="97" spans="5:6" ht="16.5">
+      <c r="E97" s="35">
         <v>2003</v>
       </c>
       <c r="F97" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E98" s="38">
+    <row r="98" spans="5:6" ht="16.5">
+      <c r="E98" s="35">
         <v>2004</v>
       </c>
       <c r="F98" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E99" s="38">
+    <row r="99" spans="5:6" ht="16.5">
+      <c r="E99" s="35">
         <v>2005</v>
       </c>
       <c r="F99" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E100" s="38">
+    <row r="100" spans="5:6" ht="16.5">
+      <c r="E100" s="35">
         <v>2006</v>
       </c>
       <c r="F100" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E101" s="38">
+    <row r="101" spans="5:6" ht="16.5">
+      <c r="E101" s="35">
         <v>2007</v>
       </c>
       <c r="F101" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E102" s="38">
+    <row r="102" spans="5:6" ht="16.5">
+      <c r="E102" s="35">
         <v>2008</v>
       </c>
       <c r="F102" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E103" s="38">
+    <row r="103" spans="5:6" ht="16.5">
+      <c r="E103" s="35">
         <v>2009</v>
       </c>
       <c r="F103" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E104" s="38">
+    <row r="104" spans="5:6" ht="16.5">
+      <c r="E104" s="35">
         <v>2010</v>
       </c>
       <c r="F104" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E105" s="38">
+    <row r="105" spans="5:6" ht="16.5">
+      <c r="E105" s="35">
         <v>2011</v>
       </c>
       <c r="F105" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E106" s="38">
+    <row r="106" spans="5:6" ht="16.5">
+      <c r="E106" s="35">
         <v>2012</v>
       </c>
       <c r="F106" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E107" s="38">
+    <row r="107" spans="5:6" ht="16.5">
+      <c r="E107" s="35">
         <v>2013</v>
       </c>
       <c r="F107" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E108" s="38">
+    <row r="108" spans="5:6" ht="16.5">
+      <c r="E108" s="35">
         <v>2014</v>
       </c>
       <c r="F108" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E109" s="38">
+    <row r="109" spans="5:6" ht="16.5">
+      <c r="E109" s="35">
         <v>2015</v>
       </c>
       <c r="F109" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E110" s="38">
+    <row r="110" spans="5:6" ht="16.5">
+      <c r="E110" s="35">
         <v>2016</v>
       </c>
       <c r="F110" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E111" s="38">
+    <row r="111" spans="5:6" ht="16.5">
+      <c r="E111" s="35">
         <v>2017</v>
       </c>
       <c r="F111" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="5:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="E112" s="38">
+    <row r="112" spans="5:6" ht="16.5">
+      <c r="E112" s="35">
         <v>2018</v>
       </c>
       <c r="F112" s="6">
@@ -7698,557 +7568,650 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A4:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.6875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" customWidth="1"/>
+    <col min="4" max="4" width="18.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <v>0.39291762894534255</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>0.12457912457912458</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <f>(B5/C5)/100</f>
         <v>3.1539604269396414E-2</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="32">
         <f>B5-C5</f>
         <v>0.26833850436621798</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <v>0.21339491916859121</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <f>(B6/C6)/100</f>
         <v>7.0420323325635095E-2</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <f t="shared" ref="E6:E31" si="0">B6-C6</f>
         <v>0.18309188886556091</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <v>8.1139337952270976E-2</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>3.3670033670033669E-2</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <f>(B7/C7)/100</f>
         <v>2.4098383371824478E-2</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <f t="shared" si="0"/>
         <v>4.7469304282237307E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="29">
         <v>8.4834488067744421E-2</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>0.18181818181818182</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <f>(C8/B8)/100</f>
         <v>2.1432106913050652E-2</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <f t="shared" si="0"/>
         <v>-9.6983693750437402E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <v>7.9753656658968441E-2</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>0.13804713804713806</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <f>(C9/B9)/100</f>
         <v>1.7309192309192308E-2</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
         <v>-5.8293481388169616E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <v>4.6959199384141649E-2</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="29">
         <v>0.28619528619528617</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="29">
         <f>(C10/B10)/100</f>
         <v>6.0945520781586347E-2</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>-0.23923608681114453</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="29">
         <v>2.3864511162432642E-2</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>5.7239057239057242E-2</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="29">
         <f>C11-B11</f>
         <v>3.33745460766246E-2</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <f t="shared" si="0"/>
         <v>-3.33745460766246E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="29">
         <v>1.7090069284064664E-2</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <f>(B12/C12)/100</f>
         <v>1.6919168591224016E-2</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>6.9890591830545617E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="29">
         <v>1.5088529638183218E-2</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>2.3569023569023569E-2</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <f>(C13/B13)/100</f>
         <v>1.5620490620490621E-2</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <f t="shared" si="0"/>
         <v>-8.4804939308403514E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="29">
         <v>1.2009237875288684E-2</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>1.3468013468013467E-2</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <f>(C14/B14)/100</f>
         <v>1.1214711214711213E-2</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="33">
         <f t="shared" si="0"/>
         <v>-1.4587755927247831E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="29">
         <v>8.4680523479599683E-3</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="29">
         <f>(C15/B15)/100</f>
         <v>1.1928374655647384E-2</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <f t="shared" si="0"/>
         <v>-1.6329577530501335E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="29">
         <v>3.695150115473441E-3</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="29">
         <f>(B16/C16)/100</f>
         <v>1.097459584295612E-2</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="32">
         <f t="shared" si="0"/>
         <v>3.2814674847007419E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="29">
         <v>3.5411855273287142E-3</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>6.7340067340067337E-3</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="29">
         <f t="shared" ref="D17:D22" si="1">(C17/B17)/100</f>
         <v>1.9016249451032058E-2</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <f t="shared" si="0"/>
         <v>-3.1928212066780195E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="29">
         <v>3.2332563510392609E-3</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
         <v>1.6835016835016835E-2</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="29">
         <f t="shared" si="1"/>
         <v>5.2068302068302069E-2</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <f t="shared" si="0"/>
         <v>-1.3601760483977574E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="29">
         <v>3.0792917628945341E-3</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <f t="shared" si="1"/>
         <v>3.2803030303030306E-2</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <f t="shared" si="0"/>
         <v>-7.0217183381155682E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="29">
         <v>3.0792917628945341E-3</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="29">
         <f t="shared" si="1"/>
         <v>1.0934343434343434E-2</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <f t="shared" si="0"/>
         <v>-2.8771160410883279E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="29">
         <v>1.539645881447267E-3</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>1.6835016835016835E-2</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="29">
         <f t="shared" si="1"/>
         <v>0.10934343434343434</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <f t="shared" si="0"/>
         <v>-1.5295370953569568E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="29">
         <v>1.2317167051578138E-3</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <v>6.7340067340067337E-3</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="29">
         <f t="shared" si="1"/>
         <v>5.467171717171717E-2</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="33">
         <f t="shared" si="0"/>
         <v>-5.5022900288489197E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <v>1.0777521170130869E-3</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="29">
         <v>0</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34">
+      <c r="D23" s="31"/>
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>1.0777521170130869E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <v>7.6982294072363352E-4</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="29">
         <f>(C24/B24)/100</f>
         <v>4.3737373737373735E-2</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="33">
         <f t="shared" si="0"/>
         <v>-2.5971804262797334E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="29">
         <v>7.6982294072363352E-4</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="29">
         <v>6.7340067340067337E-3</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="29">
         <f>(C25/B25)/100</f>
         <v>8.7474747474747469E-2</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="33">
         <f t="shared" si="0"/>
         <v>-5.9641837932831003E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <v>7.6982294072363352E-4</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="29">
         <f>(C26/B26)/100</f>
         <v>4.3737373737373735E-2</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="33">
         <f t="shared" si="0"/>
         <v>-2.5971804262797334E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="29">
         <v>4.6189376443418013E-4</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="29">
         <v>0</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="34">
+      <c r="D27" s="29"/>
+      <c r="E27" s="32">
         <f t="shared" si="0"/>
         <v>4.6189376443418013E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="29">
         <v>4.6189376443418013E-4</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="29">
         <f>(C28/B28)/100</f>
         <v>7.2895622895622902E-2</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="33">
         <f t="shared" si="0"/>
         <v>-2.9051096025691867E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="29">
         <v>3.0792917628945344E-4</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="29">
         <f>(C29/B29)/100</f>
         <v>0.10934343434343434</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="33">
         <f t="shared" si="0"/>
         <v>-3.0590741907139136E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="29">
         <v>3.0792917628945344E-4</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="29">
         <f>(C30/B30)/100</f>
         <v>0.10934343434343434</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <f t="shared" si="0"/>
         <v>-3.0590741907139136E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="29">
         <v>1.5396458814472672E-4</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="29">
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="29">
         <f>(C31/B31)/100</f>
         <v>0.21868686868686868</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <f t="shared" si="0"/>
         <v>-3.21303877885864E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="84" customHeight="1">
+      <c r="A33" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" ht="80" customHeight="1">
+      <c r="A34" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8256,166 +8219,167 @@
     <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="9"/>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <v>2013</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="34">
         <v>2014</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="34">
         <v>2015</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="34">
         <v>2016</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="34">
         <v>2017</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="34">
         <v>2018</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="34">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="37">
         <v>50</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="37">
         <v>48.4375</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <v>53.125</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>56.25</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="37">
         <v>46.969696969696969</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="37">
         <v>54.6875</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="37">
         <v>40.625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="37">
         <v>35.9375</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>39.0625</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="37">
         <v>29.6875</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="37">
         <v>26.5625</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="37">
         <v>30.303030303030305</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="37">
         <v>32.8125</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="37">
         <v>32.8125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="37">
         <v>1.5625</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="37">
         <v>1.5625</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="37">
         <v>3.125</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="37">
         <v>4.6875</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="37">
         <v>10.606060606060606</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="37">
         <v>4.6875</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="37">
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="37">
         <v>12.5</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="37">
         <v>10.9375</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="37">
         <v>14.0625</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="37">
         <v>12.5</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="37">
         <v>12.121212121212121</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="37">
         <v>7.8125</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="37">
         <v>14.0625</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13">
         <v>2013</v>
       </c>
@@ -8438,7 +8402,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -8464,7 +8428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -8490,7 +8454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -8516,7 +8480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -8542,7 +8506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="B18">
         <v>64</v>
       </c>
@@ -8565,12 +8529,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="F20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="L26" t="s">
         <v>100</v>
       </c>
@@ -8582,22 +8546,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A12:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.8125" customWidth="1"/>
+    <col min="2" max="2" width="13.6875" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="78.75">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
         <v>4</v>
@@ -8606,7 +8570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -8617,7 +8581,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
@@ -8628,7 +8592,7 @@
         <v>0.57008220507090079</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
@@ -8639,12 +8603,12 @@
         <v>0.205937129145985</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -8655,7 +8619,7 @@
         <v>0.22398066578311374</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -8666,7 +8630,7 @@
         <v>0.57008220507090079</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8677,7 +8641,7 @@
         <v>0.20593712914598547</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="78.75">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
         <v>4</v>
@@ -8687,7 +8651,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -8699,7 +8663,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
         <v>10</v>
       </c>
@@ -8711,7 +8675,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -8723,7 +8687,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
@@ -8735,7 +8699,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -8747,7 +8711,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -8759,10 +8723,10 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="F38" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -8773,7 +8737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="31.5">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -8784,7 +8748,7 @@
         <v>15.795317691473279</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="31.5">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
@@ -8795,7 +8759,7 @@
         <v>19.140921941594989</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="47.25">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -8806,7 +8770,7 @@
         <v>16.13782147097259</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -8817,7 +8781,7 @@
         <v>19.699519128110079</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="47.25">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
@@ -8828,7 +8792,7 @@
         <v>15.176931815270031</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>17</v>
       </c>
@@ -8839,12 +8803,12 @@
         <v>14.049487952579028</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -8856,35 +8820,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="42">
+      <c r="C3" s="39">
         <v>2019</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="39">
         <v>2018</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="39">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="42" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="9">
@@ -8898,8 +8862,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="42"/>
       <c r="B5" s="9">
         <v>-3</v>
       </c>
@@ -8914,8 +8878,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="42"/>
       <c r="B6" s="9">
         <v>-2</v>
       </c>
@@ -8929,8 +8893,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="42"/>
       <c r="B7" s="9">
         <v>-1</v>
       </c>
@@ -8944,26 +8908,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="41">
+    <row r="8" spans="1:8">
+      <c r="A8" s="42"/>
+      <c r="B8" s="38">
         <v>0</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="38">
         <v>12580</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>7441</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>1344</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="42"/>
       <c r="B9" s="9">
         <v>1</v>
       </c>
@@ -8977,8 +8941,8 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="42"/>
       <c r="B10" s="9">
         <v>2</v>
       </c>
@@ -8992,8 +8956,8 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="42"/>
       <c r="B11" s="9">
         <v>3</v>
       </c>
@@ -9007,8 +8971,8 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="42"/>
       <c r="B12" s="9">
         <v>4</v>
       </c>
@@ -9022,8 +8986,8 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="42"/>
       <c r="B13" s="9">
         <v>5</v>
       </c>
@@ -9037,8 +9001,8 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42"/>
       <c r="B14" s="9">
         <v>6</v>
       </c>
@@ -9052,8 +9016,8 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="42"/>
       <c r="B15" s="9">
         <v>7</v>
       </c>
@@ -9067,8 +9031,8 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="42"/>
       <c r="B16" s="9">
         <v>8</v>
       </c>
@@ -9082,8 +9046,8 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="42"/>
       <c r="B17" s="9">
         <v>9</v>
       </c>
@@ -9097,8 +9061,8 @@
         <v>566</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="9">
@@ -9114,8 +9078,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="42"/>
       <c r="B19" s="9">
         <v>11</v>
       </c>
@@ -9129,8 +9093,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="42"/>
       <c r="B20" s="9">
         <v>12</v>
       </c>
@@ -9144,8 +9108,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="42"/>
       <c r="B21" s="9">
         <v>13</v>
       </c>
@@ -9159,8 +9123,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="42"/>
       <c r="B22" s="9">
         <v>14</v>
       </c>
@@ -9174,8 +9138,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="42"/>
       <c r="B23" s="9">
         <v>15</v>
       </c>
@@ -9189,8 +9153,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="42"/>
       <c r="B24" s="9">
         <v>16</v>
       </c>
@@ -9204,8 +9168,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="42"/>
       <c r="B25" s="9">
         <v>17</v>
       </c>
@@ -9219,8 +9183,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="42"/>
       <c r="B26" s="9">
         <v>18</v>
       </c>
@@ -9234,8 +9198,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="42"/>
       <c r="B27" s="9">
         <v>19</v>
       </c>
@@ -9249,8 +9213,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="42"/>
       <c r="B28" s="9">
         <v>20</v>
       </c>
@@ -9264,8 +9228,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="42"/>
       <c r="B29" s="9">
         <v>21</v>
       </c>
@@ -9279,8 +9243,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="42"/>
       <c r="B30" s="9">
         <v>22</v>
       </c>
@@ -9294,8 +9258,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="42"/>
       <c r="B31" s="9">
         <v>23</v>
       </c>
@@ -9309,8 +9273,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:5">
+      <c r="A32" s="42"/>
       <c r="B32" s="9">
         <v>24</v>
       </c>
@@ -9324,8 +9288,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="42"/>
       <c r="B33" s="9">
         <v>25</v>
       </c>
@@ -9339,8 +9303,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="42"/>
       <c r="B34" s="9">
         <v>26</v>
       </c>
@@ -9354,8 +9318,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="42"/>
       <c r="B35" s="9">
         <v>27</v>
       </c>
@@ -9369,8 +9333,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="42"/>
       <c r="B36" s="9">
         <v>28</v>
       </c>
@@ -9384,8 +9348,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="42"/>
       <c r="B37" s="9">
         <v>29</v>
       </c>
@@ -9399,8 +9363,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="42"/>
       <c r="B38" s="9">
         <v>30</v>
       </c>
@@ -9414,8 +9378,8 @@
         <v>810</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="42"/>
       <c r="B39" s="9">
         <v>31</v>
       </c>
@@ -9429,8 +9393,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="42"/>
       <c r="B40" s="9">
         <v>32</v>
       </c>
@@ -9444,8 +9408,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="42"/>
       <c r="B41" s="9">
         <v>33</v>
       </c>
@@ -9459,8 +9423,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="42"/>
       <c r="B42" s="9">
         <v>34</v>
       </c>
@@ -9474,7 +9438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="9"/>
       <c r="B43" s="9">
         <v>35</v>
@@ -9489,7 +9453,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="9"/>
       <c r="B44" s="9">
         <v>36</v>
@@ -9515,112 +9479,113 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.8125" style="1"/>
+    <col min="3" max="3" width="11"/>
+    <col min="4" max="4" width="10.8125" style="1"/>
+    <col min="5" max="5" width="11.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:21" s="14" customFormat="1" ht="47.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
+    <row r="2" spans="1:21">
+      <c r="A2" s="22">
         <v>2017</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>39948</v>
       </c>
       <c r="C2" s="1">
         <v>78923728</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>2017</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>78923728</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+    <row r="3" spans="1:21">
+      <c r="A3" s="22">
         <v>2018</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>40254</v>
       </c>
       <c r="C3" s="1">
         <v>118046971</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>2018</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>118046971</v>
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+    <row r="4" spans="1:21">
+      <c r="A4" s="22">
         <v>2019</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>45106</v>
       </c>
       <c r="C4" s="1">
         <v>142582646</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>2019</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>142582646</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:21" ht="31.5">
+      <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="31.5">
       <c r="A9" s="6">
         <v>2019</v>
       </c>
@@ -9633,7 +9598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="6">
         <v>2018</v>
       </c>
@@ -9642,104 +9607,104 @@
       </c>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="S10" s="17"/>
+      <c r="S10" s="43"/>
       <c r="T10" s="3">
         <v>2013</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="17">
         <v>30069</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
       <c r="B11" s="6">
         <v>169890</v>
       </c>
-      <c r="S11" s="17"/>
+      <c r="S11" s="43"/>
       <c r="T11" s="3">
         <v>2014</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="17">
         <v>29063</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
       <c r="B12" s="6">
         <v>82153</v>
       </c>
-      <c r="S12" s="17"/>
+      <c r="S12" s="43"/>
       <c r="T12" s="3">
         <v>2015</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="17">
         <v>124743</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="6">
         <v>2015</v>
       </c>
       <c r="B13" s="6">
         <v>124743</v>
       </c>
-      <c r="S13" s="17"/>
+      <c r="S13" s="43"/>
       <c r="T13" s="3">
         <v>2016</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="17">
         <v>82153</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
         <v>29063</v>
       </c>
-      <c r="S14" s="17"/>
+      <c r="S14" s="43"/>
       <c r="T14" s="3">
         <v>2017</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="17">
         <v>169890</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
       <c r="B15" s="6">
         <v>30069</v>
       </c>
-      <c r="S15" s="17"/>
+      <c r="S15" s="43"/>
       <c r="T15" s="3">
         <v>2018</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="17">
         <v>224560</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="S16" s="17"/>
+    <row r="16" spans="1:21">
+      <c r="S16" s="43"/>
       <c r="T16" s="3">
         <v>2019</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="17">
         <v>272776</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>2019</v>
       </c>
@@ -9747,7 +9712,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>2018</v>
       </c>
@@ -9755,7 +9720,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -9763,7 +9728,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -9771,7 +9736,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>2015</v>
       </c>
@@ -9779,7 +9744,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -9787,92 +9752,92 @@
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3">
       <c r="C39" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4">
       <c r="C55" s="1"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="20"/>
+    <row r="57" spans="3:4">
+      <c r="C57" s="19"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="20"/>
+    <row r="58" spans="3:4">
+      <c r="C58" s="19"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="20"/>
+    <row r="59" spans="3:4">
+      <c r="C59" s="19"/>
       <c r="D59"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="20"/>
+    <row r="60" spans="3:4">
+      <c r="C60" s="19"/>
       <c r="D60"/>
     </row>
   </sheetData>
